--- a/data/normalized/월_입국승객.xlsx
+++ b/data/normalized/월_입국승객.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2017,6 +2017,102 @@
         <v>0.9999999999999999</v>
       </c>
     </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.1891891891891891</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.4324324324324323</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.5783783783783784</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.4808558558558558</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.4374999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.609073359073359</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.4172297297297297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.5175675675675675</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.4324324324324323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.2837837837837837</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.4324324324324323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.4324324324324323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
